--- a/data/trans_bre/P1409-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1409-Edad-trans_bre.xlsx
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.409992350660033</v>
+        <v>-2.089766035915979</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.457953378569752</v>
+        <v>-1.40555635362209</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-8.711805445717513</v>
+        <v>-9.026287822225985</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.5775419389786803</v>
+        <v>-0.5309307429059251</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.2834577611123592</v>
+        <v>-0.2776695458248685</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.9090796041150541</v>
+        <v>-0.9115401773349967</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.415604576405012</v>
+        <v>2.227056420281047</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.782514132802103</v>
+        <v>4.282040479251441</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6522800210161844</v>
+        <v>0.4354353003425371</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1.310478523555057</v>
+        <v>1.155545822990962</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.744533618685253</v>
+        <v>1.592147182156565</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4919590660155865</v>
+        <v>0.3870042212726402</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>1.0685618441101</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>-1.986627210795013</v>
+        <v>-1.986627210795012</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.8107443229511321</v>
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.18704041438313</v>
+        <v>-0.07404697044962986</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.067825429618148</v>
+        <v>-1.045266575978933</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-5.35248686623874</v>
+        <v>-5.258028649544439</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1554379440867932</v>
+        <v>-0.1295252002813874</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3390970499552609</v>
+        <v>-0.2774960327328943</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.6271899358807075</v>
+        <v>-0.630127654686632</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.579960154845459</v>
+        <v>3.845040776466472</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.151063093205998</v>
+        <v>3.163307629252071</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9255074864631294</v>
+        <v>0.9906437491066934</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.603178572073309</v>
+        <v>2.73254312020453</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.636962354502332</v>
+        <v>1.842020660156971</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2585110270517389</v>
+        <v>0.287449601542749</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>1.595084502537616</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.6534686327835173</v>
+        <v>0.6534686327835187</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0.8113511287670888</v>
@@ -791,7 +791,7 @@
         <v>0.856256138454317</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1681523808294046</v>
+        <v>0.168152380829405</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.14576102930001</v>
+        <v>-0.3374083943273569</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.2017768399284824</v>
+        <v>-0.09930862611851987</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.707365720612025</v>
+        <v>-1.686566197772918</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.1582809193453147</v>
+        <v>-0.2931114969279472</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1583150920356731</v>
+        <v>-0.1109299753595738</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3260126076058311</v>
+        <v>-0.3282465177087452</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.666695601408239</v>
+        <v>2.5573349778184</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.448031107502172</v>
+        <v>3.387126942864928</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.744071915372085</v>
+        <v>2.832339826398377</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>3.070041004729987</v>
+        <v>3.204845892408688</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>3.157728194298385</v>
+        <v>2.94121760927743</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.066689214702047</v>
+        <v>1.052690544006978</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>2.064356092605432</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2.618589730169007</v>
+        <v>2.618589730169008</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.655269918001729</v>
@@ -873,7 +873,7 @@
         <v>1.628772716732601</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8625921126497914</v>
+        <v>0.8625921126497921</v>
       </c>
     </row>
     <row r="14">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.7981716403402034</v>
+        <v>-0.8590840910481314</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3334001285424723</v>
+        <v>0.5013130731866168</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8092747349031068</v>
+        <v>0.8022618400557698</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.5823666872017217</v>
+        <v>-0.6775974240276217</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.01014773465847261</v>
+        <v>0.08084356514426591</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1300589731629518</v>
+        <v>0.1798883507677256</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.329798398125838</v>
+        <v>2.13375380580713</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.81125822499085</v>
+        <v>3.910043329211542</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.477514980268612</v>
+        <v>4.449567752056875</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>6.531462611929026</v>
+        <v>4.799802475503249</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>5.708718148320259</v>
+        <v>6.001877020456917</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.985608536737272</v>
+        <v>2.125705758017182</v>
       </c>
     </row>
     <row r="16">
@@ -955,7 +955,7 @@
         <v>0.5366174341554232</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.727462713825559</v>
+        <v>0.7274627138255593</v>
       </c>
     </row>
     <row r="17">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.08314880873397459</v>
+        <v>-0.2033405900658684</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.9960618345730171</v>
+        <v>-1.161329361486216</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.206514888335124</v>
+        <v>0.2585753933517677</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.1985303804084932</v>
+        <v>-0.2315949570142807</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2956508436552719</v>
+        <v>-0.3451737666346421</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01538267184173706</v>
+        <v>0.007077717120931873</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.082547736657322</v>
+        <v>4.041952780629528</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.811161083862868</v>
+        <v>3.730216469117324</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.854719192821773</v>
+        <v>3.851456160107446</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>7.680058463621585</v>
+        <v>7.551501945494435</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.462177170990938</v>
+        <v>2.655603687249521</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2.12838923224569</v>
+        <v>2.134215518692431</v>
       </c>
     </row>
     <row r="19">
@@ -1028,7 +1028,7 @@
         <v>2.22038908695054</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1.953957600911576</v>
+        <v>1.953957600911578</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.2439734410172238</v>
@@ -1037,7 +1037,7 @@
         <v>1.290918155128211</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6817005960910759</v>
+        <v>0.6817005960910768</v>
       </c>
     </row>
     <row r="20">
@@ -1048,22 +1048,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-3.65427139927799</v>
+        <v>-4.019379930946735</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-0.04752372309480021</v>
+        <v>0.05298792859954375</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-0.3261575940739732</v>
+        <v>0.1110211641767127</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.7296697200893297</v>
+        <v>-0.7494275954508944</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1796783787499608</v>
+        <v>-0.1024143998801778</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.08042407226595359</v>
+        <v>-0.005283943214685606</v>
       </c>
     </row>
     <row r="21">
@@ -1074,22 +1074,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>1.642569859857719</v>
+        <v>1.594998853522563</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>4.985944763633824</v>
+        <v>4.855771359346763</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3.808846972615317</v>
+        <v>4.118800168853</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.085666578462941</v>
+        <v>0.9899400310393635</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>6.683182541320055</v>
+        <v>5.868383207354234</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.985565374503868</v>
+        <v>2.045778021281299</v>
       </c>
     </row>
     <row r="22">
@@ -1110,7 +1110,7 @@
         <v>-0.9814441139162057</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3.213070471382903</v>
+        <v>3.213070471382902</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>0.03014888135954355</v>
@@ -1119,7 +1119,7 @@
         <v>-0.1674710715747597</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1.04228078360982</v>
+        <v>1.042280783609819</v>
       </c>
     </row>
     <row r="23">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.85268407394327</v>
+        <v>-2.99308011174834</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.613168617404757</v>
+        <v>-4.485124168058215</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.031898217583145</v>
+        <v>0.7665765333130156</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>-0.6202932648109938</v>
+        <v>-0.6828756215877948</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.6035290998285621</v>
+        <v>-0.5990422073780467</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1834238748835101</v>
+        <v>0.1212600309229171</v>
       </c>
     </row>
     <row r="24">
@@ -1156,22 +1156,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.812399889105202</v>
+        <v>2.491763669150294</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.295802161239201</v>
+        <v>2.796887173878089</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.630106315040282</v>
+        <v>5.628884183739709</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>2.350283912632668</v>
+        <v>1.673573861795138</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.6243756294343786</v>
+        <v>0.7288486060514625</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>3.025983033954143</v>
+        <v>3.0512715735805</v>
       </c>
     </row>
     <row r="25">
@@ -1192,7 +1192,7 @@
         <v>1.443346157724674</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.9137689685655321</v>
+        <v>0.9137689685655315</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.4175795292042966</v>
@@ -1201,7 +1201,7 @@
         <v>0.5684562238127547</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2372845890012987</v>
+        <v>0.2372845890012985</v>
       </c>
     </row>
     <row r="26">
@@ -1212,22 +1212,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.07449410587279109</v>
+        <v>0.06423213647337685</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.5733589026429</v>
+        <v>0.5198158457646237</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-0.072637073422786</v>
+        <v>-0.1189191554363054</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.02333659650377763</v>
+        <v>0.02243125900331036</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2051118700153089</v>
+        <v>0.1875486078007852</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.02423398990143532</v>
+        <v>-0.03075059950313404</v>
       </c>
     </row>
     <row r="27">
@@ -1238,22 +1238,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>1.478991581180482</v>
+        <v>1.551488852088494</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>2.326540410472692</v>
+        <v>2.258944911477547</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1.85253959247546</v>
+        <v>1.894969071826819</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.9219745210621446</v>
+        <v>0.9796815830821736</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.112201149551953</v>
+        <v>1.022837305074137</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5601764311988165</v>
+        <v>0.5622271205067001</v>
       </c>
     </row>
     <row r="28">
